--- a/egov/egov_functional_test/src/test/resources/dataFiles/approvalDetailsTestData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/dataFiles/approvalDetailsTestData.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
   </bookViews>
   <sheets>
-    <sheet name="approvalDetails" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="approvalDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -24,415 +23,394 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="123">
   <si>
-    <t xml:space="preserve">dataName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approverDepartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approverDesignation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approverRemarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">billCollector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REVENUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bill Collector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.Khasim ~ REV_Bill Collector_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to bill collector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revenueInspector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UD Revenue Inspector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P.Sadiq Hussain ~ UD RI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to revenue insoector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revenueOfficer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revenue Officer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Veeraswamy ~ REV_Revenue Officer_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to revenue officer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commissioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADMINISTRATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commissioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CommissionerTest ~ ADN Comm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to commissioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commissioner1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CommissionerTest/ADN Comm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">engineer1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGINEERING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistant Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.Naresh/ENG_Assistant Engineer_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.P.Sreenivasulu/ENG_Assistant Engineer_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assExaminerOfAccounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCOUNTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistant Examiner of Accounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AssExaminerTest ~ ACC AEOA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to Assistant Examiner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">examinerOfAccounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Examiner of Accounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExaminerTest ~ ACC EOA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to Examiner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assExaminerOfAccounts1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AssExaminerTest/ACC AEOA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">examinerOfAccounts1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExaminerTest/ACC EOA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deputyExecutiveEngineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deputy Executive Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S.Nayab Rasool/ENG_Dy. Executive Engineer_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to DEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanitaryInspector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUBLIC HEALTH AND SANITATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanitary Inspector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S.Ravi ~ PHS_Sanitary Inspector_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to Sanitary Inspector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanitaryInspector1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandragiri Murali Krishna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funds needed to resolve the issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LightingSuperintendent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceelam Ramesh Babu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanctioned and shall grievance be processed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SuperIntendent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superintendent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K.Mohammed/ACC_Superintendent_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to Accounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assis_Engineer_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assis_Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeputyExecutiveEngineer_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.Radha Krishna/ENG_Dy. Executive Engineer_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Executive_engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Executive Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G.Raja Sekhar/ENG_Executive Engineer_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to executive engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seniorAssistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senior Assistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K.Ramakrishna-ADM_Senior Assistant_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bill_Collector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.Khasim/REV_Bill Collector_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revenue_Inspector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P.Sadiq Hussain ~ UD RI/UD_Revenue Inspector_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to Revenue Inspector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revenue_Officer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Veeraswamy/REV_Revenue Officer_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ulbOperator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Town Planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sa1/TP_Senior Assistant_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assistantEngineerBPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistant engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AE1/TP_Assistant Engineer_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overseer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Town Planning Building Overseer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWO1/TP_Town Planning Building Overseer_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">superintendentOfNOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superintendent of NOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPNOC1/ADM_Superintendent of NOC_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assistantExecutiveEngineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistant executive engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AEE1/TP_Assistant Executive Engineer_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">executiveEngineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Executive engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EE1/TP_Executive Engineer_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corporationEngineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corporation Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORPENG1/TP_Corporation Engineer_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secretary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secretary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SECRETARY1/ADM_Secretary_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">superintendentOfApproval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superintendent of Approval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPAPP1/ADM_Superintendent of Approval_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">veeraswamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Veeraswamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commissionerLAMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S.Ravindra Babu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL_Commissioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB Hari Natha Reddy ~ ADM_Commissioner_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL_SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandragiri Murali Krishna ~ PHS_Sanitary Inspector_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTISBillCollector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTISRevenueInspector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTISRevenueOfficer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTISCommissioner</t>
+    <t>dataName</t>
+  </si>
+  <si>
+    <t>approverDepartment</t>
+  </si>
+  <si>
+    <t>approverDesignation</t>
+  </si>
+  <si>
+    <t>approver</t>
+  </si>
+  <si>
+    <t>approverRemarks</t>
+  </si>
+  <si>
+    <t>billCollector</t>
+  </si>
+  <si>
+    <t>REVENUE</t>
+  </si>
+  <si>
+    <t>Bill Collector</t>
+  </si>
+  <si>
+    <t>D.Khasim ~ REV_Bill Collector_1</t>
+  </si>
+  <si>
+    <t>Forward to bill collector</t>
+  </si>
+  <si>
+    <t>revenueInspector</t>
+  </si>
+  <si>
+    <t>UD Revenue Inspector</t>
+  </si>
+  <si>
+    <t>P.Sadiq Hussain ~ UD RI</t>
+  </si>
+  <si>
+    <t>Forward to revenue insoector</t>
+  </si>
+  <si>
+    <t>revenueOfficer</t>
+  </si>
+  <si>
+    <t>Revenue Officer</t>
+  </si>
+  <si>
+    <t>B.Veeraswamy ~ REV_Revenue Officer_3</t>
+  </si>
+  <si>
+    <t>Forward to revenue officer</t>
+  </si>
+  <si>
+    <t>commissioner</t>
+  </si>
+  <si>
+    <t>ADMINISTRATION</t>
+  </si>
+  <si>
+    <t>Commissioner</t>
+  </si>
+  <si>
+    <t>CommissionerTest ~ ADN Comm</t>
+  </si>
+  <si>
+    <t>Forward to commissioner</t>
+  </si>
+  <si>
+    <t>commissioner1</t>
+  </si>
+  <si>
+    <t>CommissionerTest/ADN Comm</t>
+  </si>
+  <si>
+    <t>engineer1</t>
+  </si>
+  <si>
+    <t>ENGINEERING</t>
+  </si>
+  <si>
+    <t>Assistant Engineer</t>
+  </si>
+  <si>
+    <t>C.Naresh/ENG_Assistant Engineer_4</t>
+  </si>
+  <si>
+    <t>Forward to Engineer</t>
+  </si>
+  <si>
+    <t>engineer</t>
+  </si>
+  <si>
+    <t>A.P.Sreenivasulu/ENG_Assistant Engineer_1</t>
+  </si>
+  <si>
+    <t>assExaminerOfAccounts</t>
+  </si>
+  <si>
+    <t>ACCOUNTS</t>
+  </si>
+  <si>
+    <t>Assistant Examiner of Accounts</t>
+  </si>
+  <si>
+    <t>AssExaminerTest ~ ACC AEOA</t>
+  </si>
+  <si>
+    <t>Forward to Assistant Examiner</t>
+  </si>
+  <si>
+    <t>examinerOfAccounts</t>
+  </si>
+  <si>
+    <t>Examiner of Accounts</t>
+  </si>
+  <si>
+    <t>ExaminerTest ~ ACC EOA</t>
+  </si>
+  <si>
+    <t>Forward to Examiner</t>
+  </si>
+  <si>
+    <t>assExaminerOfAccounts1</t>
+  </si>
+  <si>
+    <t>AssExaminerTest/ACC AEOA</t>
+  </si>
+  <si>
+    <t>examinerOfAccounts1</t>
+  </si>
+  <si>
+    <t>ExaminerTest/ACC EOA</t>
+  </si>
+  <si>
+    <t>deputyExecutiveEngineer</t>
+  </si>
+  <si>
+    <t>Deputy Executive Engineer</t>
+  </si>
+  <si>
+    <t>S.Nayab Rasool/ENG_Dy. Executive Engineer_4</t>
+  </si>
+  <si>
+    <t>Forward to DEE</t>
+  </si>
+  <si>
+    <t>sanitaryInspector</t>
+  </si>
+  <si>
+    <t>PUBLIC HEALTH AND SANITATION</t>
+  </si>
+  <si>
+    <t>Sanitary Inspector</t>
+  </si>
+  <si>
+    <t>S.Ravi ~ PHS_Sanitary Inspector_12</t>
+  </si>
+  <si>
+    <t>Forward to Sanitary Inspector</t>
+  </si>
+  <si>
+    <t>sanitaryInspector1</t>
+  </si>
+  <si>
+    <t>Chandragiri Murali Krishna</t>
+  </si>
+  <si>
+    <t>Funds needed to resolve the issue</t>
+  </si>
+  <si>
+    <t>LightingSuperintendent</t>
+  </si>
+  <si>
+    <t>Ceelam Ramesh Babu</t>
+  </si>
+  <si>
+    <t>Sanctioned and shall grievance be processed</t>
+  </si>
+  <si>
+    <t>SuperIntendent</t>
+  </si>
+  <si>
+    <t>Superintendent</t>
+  </si>
+  <si>
+    <t>K.Mohammed/ACC_Superintendent_2</t>
+  </si>
+  <si>
+    <t>Forward to Accounts</t>
+  </si>
+  <si>
+    <t>assis_Engineer_1</t>
+  </si>
+  <si>
+    <t>assis_Engineer</t>
+  </si>
+  <si>
+    <t>DeputyExecutiveEngineer_1</t>
+  </si>
+  <si>
+    <t>C.Radha Krishna/ENG_Dy. Executive Engineer_3</t>
+  </si>
+  <si>
+    <t>Executive_engineer</t>
+  </si>
+  <si>
+    <t>Executive Engineer</t>
+  </si>
+  <si>
+    <t>G.Raja Sekhar/ENG_Executive Engineer_1</t>
+  </si>
+  <si>
+    <t>Forward to executive engineer</t>
+  </si>
+  <si>
+    <t>seniorAssistant</t>
+  </si>
+  <si>
+    <t>Senior Assistant</t>
+  </si>
+  <si>
+    <t>K.Ramakrishna-ADM_Senior Assistant_7</t>
+  </si>
+  <si>
+    <t>bill_Collector</t>
+  </si>
+  <si>
+    <t>D.Khasim/REV_Bill Collector_1</t>
+  </si>
+  <si>
+    <t>revenue_Inspector</t>
+  </si>
+  <si>
+    <t>P.Sadiq Hussain ~ UD RI/UD_Revenue Inspector_1</t>
+  </si>
+  <si>
+    <t>Forward to Revenue Inspector</t>
+  </si>
+  <si>
+    <t>revenue_Officer</t>
+  </si>
+  <si>
+    <t>B.Veeraswamy/REV_Revenue Officer_3</t>
+  </si>
+  <si>
+    <t>ulbOperator</t>
+  </si>
+  <si>
+    <t>Town Planning</t>
+  </si>
+  <si>
+    <t>sa1/TP_Senior Assistant_1</t>
+  </si>
+  <si>
+    <t>assistantEngineerBPA</t>
+  </si>
+  <si>
+    <t>Assistant engineer</t>
+  </si>
+  <si>
+    <t>AE1/TP_Assistant Engineer_1</t>
+  </si>
+  <si>
+    <t>overseer</t>
+  </si>
+  <si>
+    <t>Town Planning Building Overseer</t>
+  </si>
+  <si>
+    <t>PWO1/TP_Town Planning Building Overseer_1</t>
+  </si>
+  <si>
+    <t>superintendentOfNOC</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Superintendent of NOC</t>
+  </si>
+  <si>
+    <t>SUPNOC1/ADM_Superintendent of NOC_2</t>
+  </si>
+  <si>
+    <t>assistantExecutiveEngineer</t>
+  </si>
+  <si>
+    <t>Assistant executive engineer</t>
+  </si>
+  <si>
+    <t>AEE1/TP_Assistant Executive Engineer_2</t>
+  </si>
+  <si>
+    <t>executiveEngineer</t>
+  </si>
+  <si>
+    <t>Executive engineer</t>
+  </si>
+  <si>
+    <t>EE1/TP_Executive Engineer_2</t>
+  </si>
+  <si>
+    <t>corporationEngineer</t>
+  </si>
+  <si>
+    <t>Corporation Engineer</t>
+  </si>
+  <si>
+    <t>CORPENG1/TP_Corporation Engineer_1</t>
+  </si>
+  <si>
+    <t>secretary</t>
+  </si>
+  <si>
+    <t>Secretary</t>
+  </si>
+  <si>
+    <t>SECRETARY1/ADM_Secretary_2</t>
+  </si>
+  <si>
+    <t>superintendentOfApproval</t>
+  </si>
+  <si>
+    <t>Superintendent of Approval</t>
+  </si>
+  <si>
+    <t>SUPAPP1/ADM_Superintendent of Approval_2</t>
+  </si>
+  <si>
+    <t>veeraswamy</t>
+  </si>
+  <si>
+    <t>B.Veeraswamy</t>
+  </si>
+  <si>
+    <t>commissionerLAMS</t>
+  </si>
+  <si>
+    <t>S.Ravindra Babu</t>
+  </si>
+  <si>
+    <t>TL_Commissioner</t>
+  </si>
+  <si>
+    <t>CB Hari Natha Reddy ~ ADM_Commissioner_1</t>
+  </si>
+  <si>
+    <t>TL_SI</t>
+  </si>
+  <si>
+    <t>Forward to SI</t>
+  </si>
+  <si>
+    <t>PTISBillCollector</t>
+  </si>
+  <si>
+    <t>PTISRevenueInspector</t>
+  </si>
+  <si>
+    <t>PTISRevenueOfficer</t>
+  </si>
+  <si>
+    <t>PTISCommissioner</t>
+  </si>
+  <si>
+    <t>Chandragiri Murali Krishna ~ PHS_Sanitary Inspector_6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -446,7 +424,6 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -459,7 +436,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -467,100 +444,340 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.2551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="56.7959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="257" min="6" style="1" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="6.20918367346939"/>
+    <col min="1" max="1" width="26.7109375" style="1"/>
+    <col min="2" max="2" width="31.28515625" style="1"/>
+    <col min="3" max="3" width="30.28515625" style="1"/>
+    <col min="4" max="4" width="56.85546875" style="1"/>
+    <col min="5" max="5" width="32.28515625" style="1"/>
+    <col min="6" max="257" width="6.140625" style="1"/>
+    <col min="258" max="1025" width="6.140625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -594,7 +811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -611,7 +828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -628,7 +845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -645,7 +862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -662,7 +879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -679,7 +896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -696,7 +913,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -713,7 +930,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -730,7 +947,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -747,7 +964,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -764,7 +981,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -781,7 +998,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -798,7 +1015,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
@@ -815,7 +1032,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
@@ -832,7 +1049,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
@@ -850,7 +1067,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -867,7 +1084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -884,7 +1101,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="31.35" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -901,7 +1118,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
@@ -918,7 +1135,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
@@ -932,7 +1149,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>75</v>
       </c>
@@ -949,7 +1166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>77</v>
       </c>
@@ -966,7 +1183,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>80</v>
       </c>
@@ -983,7 +1200,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
@@ -997,7 +1214,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>85</v>
       </c>
@@ -1011,7 +1228,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>88</v>
       </c>
@@ -1025,7 +1242,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>91</v>
       </c>
@@ -1039,7 +1256,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>95</v>
       </c>
@@ -1053,7 +1270,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>98</v>
       </c>
@@ -1067,7 +1284,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>101</v>
       </c>
@@ -1081,7 +1298,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>104</v>
       </c>
@@ -1095,7 +1312,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>107</v>
       </c>
@@ -1109,7 +1326,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>110</v>
       </c>
@@ -1123,7 +1340,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>112</v>
       </c>
@@ -1137,7 +1354,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>114</v>
       </c>
@@ -1154,7 +1371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>116</v>
       </c>
@@ -1165,15 +1382,15 @@
         <v>51</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>6</v>
@@ -1188,9 +1405,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:5">
       <c r="A40" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>6</v>
@@ -1205,9 +1422,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:5">
       <c r="A41" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>6</v>
@@ -1222,9 +1439,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:5">
       <c r="A42" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>19</v>
@@ -1236,66 +1453,40 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col min="1" max="1025" width="8.42578125"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col min="1" max="1025" width="8.42578125"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/egov/egov_functional_test/src/test/resources/dataFiles/approvalDetailsTestData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/dataFiles/approvalDetailsTestData.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="124">
   <si>
     <t>dataName</t>
   </si>
@@ -197,9 +197,6 @@
     <t>LightingSuperintendent</t>
   </si>
   <si>
-    <t>Ceelam Ramesh Babu</t>
-  </si>
-  <si>
     <t>Sanctioned and shall grievance be processed</t>
   </si>
   <si>
@@ -390,6 +387,12 @@
   </si>
   <si>
     <t>Chandragiri Murali Krishna ~ PHS_Sanitary Inspector_6</t>
+  </si>
+  <si>
+    <t>RAVI BABU GUNDAM PATI</t>
+  </si>
+  <si>
+    <t>Veterinary officer</t>
   </si>
 </sst>
 </file>
@@ -762,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1040,36 +1043,36 @@
         <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
@@ -1086,7 +1089,7 @@
     </row>
     <row r="19" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>26</v>
@@ -1103,7 +1106,7 @@
     </row>
     <row r="20" spans="1:6" ht="31.35" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>26</v>
@@ -1112,7 +1115,7 @@
         <v>46</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>48</v>
@@ -1120,38 +1123,38 @@
     </row>
     <row r="21" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>6</v>
@@ -1160,7 +1163,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>9</v>
@@ -1168,7 +1171,7 @@
     </row>
     <row r="24" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>6</v>
@@ -1177,15 +1180,15 @@
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>6</v>
@@ -1194,7 +1197,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>17</v>
@@ -1202,133 +1205,133 @@
     </row>
     <row r="26" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>6</v>
@@ -1337,12 +1340,12 @@
         <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>19</v>
@@ -1351,12 +1354,12 @@
         <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>19</v>
@@ -1365,7 +1368,7 @@
         <v>20</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>22</v>
@@ -1373,7 +1376,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>50</v>
@@ -1382,15 +1385,15 @@
         <v>51</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>6</v>
@@ -1407,7 +1410,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>6</v>
@@ -1424,7 +1427,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>6</v>
@@ -1441,7 +1444,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>19</v>
@@ -1450,7 +1453,7 @@
         <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/egov/egov_functional_test/src/test/resources/dataFiles/approvalDetailsTestData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/dataFiles/approvalDetailsTestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="150">
   <si>
     <t xml:space="preserve">dataName</t>
   </si>
@@ -448,6 +448,30 @@
   </si>
   <si>
     <t xml:space="preserve">PTCommissionerOne ~ ADM_COMM_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTISBillCollector1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTBillCollectorOne~PTIS_REVBC_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTISRevenueInspector1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTRevenueInspectorOne~PTIS_REVSI_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTISRevenueOfficer1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTRevenueOfficerOne~PTIS_REVOF_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTISCommissioner1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTCommissionerOne~ADM_COMM_20</t>
   </si>
 </sst>
 </file>
@@ -509,8 +533,9 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Ubuntu"/>
-      <family val="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -559,7 +584,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -581,10 +606,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -610,21 +631,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="55.4795918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="54.8061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="31.0459183673469"/>
     <col collapsed="false" hidden="false" max="257" min="6" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1344,7 +1365,7 @@
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -1397,6 +1418,71 @@
       </c>
       <c r="D46" s="1" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1422,6 +1508,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1445,6 +1534,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/egov/egov_functional_test/src/test/resources/dataFiles/approvalDetailsTestData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/dataFiles/approvalDetailsTestData.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
   </bookViews>
   <sheets>
-    <sheet name="approvalDetails" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="approvalDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,467 +21,496 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="150">
-  <si>
-    <t xml:space="preserve">dataName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approverDepartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approverDesignation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approverRemarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">billCollector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REVENUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bill Collector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.Khasim ~ REV_Bill Collector_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to bill collector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revenueInspector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UD Revenue Inspector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P.Sadiq Hussain ~ UD RI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to revenue insoector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revenueOfficer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revenue Officer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Veeraswamy ~ REV_Revenue Officer_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to revenue officer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commissioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADMINISTRATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commissioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CommissionerTest ~ ADN Comm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to commissioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commissioner1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CommissionerTest/ADN Comm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">engineer1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGINEERING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistant Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.Naresh/ENG_Assistant Engineer_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.P.Sreenivasulu/ENG_Assistant Engineer_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assExaminerOfAccounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCOUNTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistant Examiner of Accounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AssExaminerTest ~ ACC AEOA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to Assistant Examiner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">examinerOfAccounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Examiner of Accounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExaminerTest ~ ACC EOA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to Examiner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assExaminerOfAccounts1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AssExaminerTest/ACC AEOA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">examinerOfAccounts1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExaminerTest/ACC EOA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deputyExecutiveEngineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deputy Executive Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S.Nayab Rasool/ENG_Dy. Executive Engineer_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to DEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanitaryInspector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUBLIC HEALTH AND SANITATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanitary Inspector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S.Ravi ~ PHS_Sanitary Inspector_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to Sanitary Inspector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanitaryInspector1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLSanitoryInspectorOne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funds needed to resolve the issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LightingSuperintendent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veterinary officer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAVI BABU GUNDAM PATI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanctioned and shall grievance be processed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SuperIntendent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superintendent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K.Mohammed/ACC_Superintendent_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to Accounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assis_Engineer_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assis_Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeputyExecutiveEngineer_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.Radha Krishna/ENG_Dy. Executive Engineer_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Executive_engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Executive Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G.Raja Sekhar/ENG_Executive Engineer_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to executive engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seniorAssistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senior Assistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K.Ramakrishna-ADM_Senior Assistant_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bill_Collector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.Khasim/REV_Bill Collector_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revenue_Inspector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P.Sadiq Hussain ~ UD RI/UD_Revenue Inspector_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to Revenue Inspector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revenue_Officer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Veeraswamy/REV_Revenue Officer_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ulbOperator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Town Planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sa1/TP_Senior Assistant_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assistantEngineerBPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistant engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AE1/TP_Assistant Engineer_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overseer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Town Planning Building Overseer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWO1/TP_Town Planning Building Overseer_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">superintendentOfNOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superintendent of NOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPNOC1/ADM_Superintendent of NOC_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assistantExecutiveEngineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistant executive engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AEE1/TP_Assistant Executive Engineer_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">executiveEngineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Executive engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EE1/TP_Executive Engineer_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corporationEngineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corporation Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORPENG1/TP_Corporation Engineer_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secretary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secretary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SECRETARY1/ADM_Secretary_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">superintendentOfApproval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superintendent of Approval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPAPP1/ADM_Superintendent of Approval_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">veeraswamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Veeraswamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commissionerLAMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S.Ravindra Babu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL_Commissioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLCommissionerOne ~ ADM_COMM_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL_SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLSanitoryInspectorOne ~ TL_SI_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward to SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL_AMOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistant Medical Officer of Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLAMOHOne ~ TL_AMOH_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL_MHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municipal Health Officer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLMHO ~ TL_MHO_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL_CMOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chief Medical Officer of Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLCMOH ~ TL_CMOH_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL_SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanitary Supervisor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLSanitarySupervisorOne ~ TL_SS_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forwarded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTISBillCollector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTBillCollectorOne ~ PTIS_REVBC_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTISRevenueInspector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTRevenueInspectorOne ~ PTIS_REVSI_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTISRevenueOfficer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTRevenueOfficerOne ~ PTIS_REVOF_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTISCommissioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTCommissionerOne ~ ADM_COMM_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTISBillCollector1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTBillCollectorOne~PTIS_REVBC_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTISRevenueInspector1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTRevenueInspectorOne~PTIS_REVSI_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTISRevenueOfficer1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTRevenueOfficerOne~PTIS_REVOF_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTISCommissioner1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTCommissionerOne~ADM_COMM_20</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="161">
+  <si>
+    <t>dataName</t>
+  </si>
+  <si>
+    <t>approverDepartment</t>
+  </si>
+  <si>
+    <t>approverDesignation</t>
+  </si>
+  <si>
+    <t>approver</t>
+  </si>
+  <si>
+    <t>approverRemarks</t>
+  </si>
+  <si>
+    <t>billCollector</t>
+  </si>
+  <si>
+    <t>REVENUE</t>
+  </si>
+  <si>
+    <t>Bill Collector</t>
+  </si>
+  <si>
+    <t>D.Khasim ~ REV_Bill Collector_1</t>
+  </si>
+  <si>
+    <t>Forward to bill collector</t>
+  </si>
+  <si>
+    <t>revenueInspector</t>
+  </si>
+  <si>
+    <t>UD Revenue Inspector</t>
+  </si>
+  <si>
+    <t>P.Sadiq Hussain ~ UD RI</t>
+  </si>
+  <si>
+    <t>Forward to revenue insoector</t>
+  </si>
+  <si>
+    <t>revenueOfficer</t>
+  </si>
+  <si>
+    <t>Revenue Officer</t>
+  </si>
+  <si>
+    <t>B.Veeraswamy ~ REV_Revenue Officer_3</t>
+  </si>
+  <si>
+    <t>Forward to revenue officer</t>
+  </si>
+  <si>
+    <t>commissioner</t>
+  </si>
+  <si>
+    <t>ADMINISTRATION</t>
+  </si>
+  <si>
+    <t>Commissioner</t>
+  </si>
+  <si>
+    <t>CommissionerTest ~ ADN Comm</t>
+  </si>
+  <si>
+    <t>Forward to commissioner</t>
+  </si>
+  <si>
+    <t>commissioner1</t>
+  </si>
+  <si>
+    <t>CommissionerTest/ADN Comm</t>
+  </si>
+  <si>
+    <t>engineer1</t>
+  </si>
+  <si>
+    <t>ENGINEERING</t>
+  </si>
+  <si>
+    <t>Assistant Engineer</t>
+  </si>
+  <si>
+    <t>C.Naresh/ENG_Assistant Engineer_4</t>
+  </si>
+  <si>
+    <t>Forward to Engineer</t>
+  </si>
+  <si>
+    <t>engineer</t>
+  </si>
+  <si>
+    <t>A.P.Sreenivasulu/ENG_Assistant Engineer_1</t>
+  </si>
+  <si>
+    <t>assExaminerOfAccounts</t>
+  </si>
+  <si>
+    <t>ACCOUNTS</t>
+  </si>
+  <si>
+    <t>Assistant Examiner of Accounts</t>
+  </si>
+  <si>
+    <t>AssExaminerTest ~ ACC AEOA</t>
+  </si>
+  <si>
+    <t>Forward to Assistant Examiner</t>
+  </si>
+  <si>
+    <t>examinerOfAccounts</t>
+  </si>
+  <si>
+    <t>Examiner of Accounts</t>
+  </si>
+  <si>
+    <t>ExaminerTest ~ ACC EOA</t>
+  </si>
+  <si>
+    <t>Forward to Examiner</t>
+  </si>
+  <si>
+    <t>assExaminerOfAccounts1</t>
+  </si>
+  <si>
+    <t>AssExaminerTest/ACC AEOA</t>
+  </si>
+  <si>
+    <t>examinerOfAccounts1</t>
+  </si>
+  <si>
+    <t>ExaminerTest/ACC EOA</t>
+  </si>
+  <si>
+    <t>deputyExecutiveEngineer</t>
+  </si>
+  <si>
+    <t>Deputy Executive Engineer</t>
+  </si>
+  <si>
+    <t>S.Nayab Rasool/ENG_Dy. Executive Engineer_4</t>
+  </si>
+  <si>
+    <t>Forward to DEE</t>
+  </si>
+  <si>
+    <t>sanitaryInspector</t>
+  </si>
+  <si>
+    <t>PUBLIC HEALTH AND SANITATION</t>
+  </si>
+  <si>
+    <t>Sanitary Inspector</t>
+  </si>
+  <si>
+    <t>S.Ravi ~ PHS_Sanitary Inspector_12</t>
+  </si>
+  <si>
+    <t>Forward to Sanitary Inspector</t>
+  </si>
+  <si>
+    <t>sanitaryInspector1</t>
+  </si>
+  <si>
+    <t>TLSanitoryInspectorOne</t>
+  </si>
+  <si>
+    <t>Funds needed to resolve the issue</t>
+  </si>
+  <si>
+    <t>LightingSuperintendent</t>
+  </si>
+  <si>
+    <t>Veterinary officer</t>
+  </si>
+  <si>
+    <t>RAVI BABU GUNDAM PATI</t>
+  </si>
+  <si>
+    <t>Sanctioned and shall grievance be processed</t>
+  </si>
+  <si>
+    <t>SuperIntendent</t>
+  </si>
+  <si>
+    <t>Superintendent</t>
+  </si>
+  <si>
+    <t>K.Mohammed/ACC_Superintendent_2</t>
+  </si>
+  <si>
+    <t>Forward to Accounts</t>
+  </si>
+  <si>
+    <t>assis_Engineer_1</t>
+  </si>
+  <si>
+    <t>assis_Engineer</t>
+  </si>
+  <si>
+    <t>DeputyExecutiveEngineer_1</t>
+  </si>
+  <si>
+    <t>C.Radha Krishna/ENG_Dy. Executive Engineer_3</t>
+  </si>
+  <si>
+    <t>Executive_engineer</t>
+  </si>
+  <si>
+    <t>Executive Engineer</t>
+  </si>
+  <si>
+    <t>G.Raja Sekhar/ENG_Executive Engineer_1</t>
+  </si>
+  <si>
+    <t>Forward to executive engineer</t>
+  </si>
+  <si>
+    <t>seniorAssistant</t>
+  </si>
+  <si>
+    <t>Senior Assistant</t>
+  </si>
+  <si>
+    <t>K.Ramakrishna-ADM_Senior Assistant_7</t>
+  </si>
+  <si>
+    <t>bill_Collector</t>
+  </si>
+  <si>
+    <t>D.Khasim/REV_Bill Collector_1</t>
+  </si>
+  <si>
+    <t>revenue_Inspector</t>
+  </si>
+  <si>
+    <t>P.Sadiq Hussain ~ UD RI/UD_Revenue Inspector_1</t>
+  </si>
+  <si>
+    <t>Forward to Revenue Inspector</t>
+  </si>
+  <si>
+    <t>revenue_Officer</t>
+  </si>
+  <si>
+    <t>B.Veeraswamy/REV_Revenue Officer_3</t>
+  </si>
+  <si>
+    <t>ulbOperator</t>
+  </si>
+  <si>
+    <t>Town Planning</t>
+  </si>
+  <si>
+    <t>sa1/TP_Senior Assistant_1</t>
+  </si>
+  <si>
+    <t>assistantEngineerBPA</t>
+  </si>
+  <si>
+    <t>Assistant engineer</t>
+  </si>
+  <si>
+    <t>AE1/TP_Assistant Engineer_1</t>
+  </si>
+  <si>
+    <t>overseer</t>
+  </si>
+  <si>
+    <t>Town Planning Building Overseer</t>
+  </si>
+  <si>
+    <t>PWO1/TP_Town Planning Building Overseer_1</t>
+  </si>
+  <si>
+    <t>superintendentOfNOC</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Superintendent of NOC</t>
+  </si>
+  <si>
+    <t>SUPNOC1/ADM_Superintendent of NOC_2</t>
+  </si>
+  <si>
+    <t>assistantExecutiveEngineer</t>
+  </si>
+  <si>
+    <t>Assistant executive engineer</t>
+  </si>
+  <si>
+    <t>AEE1/TP_Assistant Executive Engineer_2</t>
+  </si>
+  <si>
+    <t>executiveEngineer</t>
+  </si>
+  <si>
+    <t>Executive engineer</t>
+  </si>
+  <si>
+    <t>EE1/TP_Executive Engineer_2</t>
+  </si>
+  <si>
+    <t>corporationEngineer</t>
+  </si>
+  <si>
+    <t>Corporation Engineer</t>
+  </si>
+  <si>
+    <t>CORPENG1/TP_Corporation Engineer_1</t>
+  </si>
+  <si>
+    <t>secretary</t>
+  </si>
+  <si>
+    <t>Secretary</t>
+  </si>
+  <si>
+    <t>SECRETARY1/ADM_Secretary_2</t>
+  </si>
+  <si>
+    <t>superintendentOfApproval</t>
+  </si>
+  <si>
+    <t>Superintendent of Approval</t>
+  </si>
+  <si>
+    <t>SUPAPP1/ADM_Superintendent of Approval_2</t>
+  </si>
+  <si>
+    <t>veeraswamy</t>
+  </si>
+  <si>
+    <t>B.Veeraswamy</t>
+  </si>
+  <si>
+    <t>commissionerLAMS</t>
+  </si>
+  <si>
+    <t>S.Ravindra Babu</t>
+  </si>
+  <si>
+    <t>TL_Commissioner</t>
+  </si>
+  <si>
+    <t>TLCommissionerOne ~ ADM_COMM_1</t>
+  </si>
+  <si>
+    <t>TL_SI</t>
+  </si>
+  <si>
+    <t>TLSanitoryInspectorOne ~ TL_SI_01</t>
+  </si>
+  <si>
+    <t>Forward to SI</t>
+  </si>
+  <si>
+    <t>TL_AMOH</t>
+  </si>
+  <si>
+    <t>Assistant Medical Officer of Health</t>
+  </si>
+  <si>
+    <t>TLAMOHOne ~ TL_AMOH_10</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>TL_MHO</t>
+  </si>
+  <si>
+    <t>Municipal Health Officer</t>
+  </si>
+  <si>
+    <t>TLMHO ~ TL_MHO_01</t>
+  </si>
+  <si>
+    <t>TL_CMOH</t>
+  </si>
+  <si>
+    <t>Chief Medical Officer of Health</t>
+  </si>
+  <si>
+    <t>TLCMOH ~ TL_CMOH_01</t>
+  </si>
+  <si>
+    <t>TL_SS</t>
+  </si>
+  <si>
+    <t>Sanitary Supervisor</t>
+  </si>
+  <si>
+    <t>TLSanitarySupervisorOne ~ TL_SS_01</t>
+  </si>
+  <si>
+    <t>Forwarded</t>
+  </si>
+  <si>
+    <t>PTISBillCollector</t>
+  </si>
+  <si>
+    <t>PTBillCollectorOne ~ PTIS_REVBC_1</t>
+  </si>
+  <si>
+    <t>PTISRevenueInspector</t>
+  </si>
+  <si>
+    <t>PTRevenueInspectorOne ~ PTIS_REVSI_1</t>
+  </si>
+  <si>
+    <t>PTISRevenueOfficer</t>
+  </si>
+  <si>
+    <t>PTRevenueOfficerOne ~ PTIS_REVOF_1</t>
+  </si>
+  <si>
+    <t>PTISCommissioner</t>
+  </si>
+  <si>
+    <t>PTCommissionerOne ~ ADM_COMM_20</t>
+  </si>
+  <si>
+    <t>PTISBillCollector1</t>
+  </si>
+  <si>
+    <t>PTBillCollectorOne~PTIS_REVBC_1</t>
+  </si>
+  <si>
+    <t>PTISRevenueInspector1</t>
+  </si>
+  <si>
+    <t>PTRevenueInspectorOne~PTIS_REVSI_1</t>
+  </si>
+  <si>
+    <t>PTISRevenueOfficer1</t>
+  </si>
+  <si>
+    <t>PTRevenueOfficerOne~PTIS_REVOF_1</t>
+  </si>
+  <si>
+    <t>PTISCommissioner1</t>
+  </si>
+  <si>
+    <t>PTCommissionerOne~ADM_COMM_20</t>
+  </si>
+  <si>
+    <t>TL_Commissioner1</t>
+  </si>
+  <si>
+    <t>TL_SI1</t>
+  </si>
+  <si>
+    <t>TL_AMOH1</t>
+  </si>
+  <si>
+    <t>TL_MHO1</t>
+  </si>
+  <si>
+    <t>TL_CMOH1</t>
+  </si>
+  <si>
+    <t>TL_SS1</t>
+  </si>
+  <si>
+    <t>TLSanitoryInspectorOne~TL_SI_01</t>
+  </si>
+  <si>
+    <t>TLAMOHOne~TL_AMOH_10</t>
+  </si>
+  <si>
+    <t>TLMHO~TL_MHO_01</t>
+  </si>
+  <si>
+    <t>TLCMOH~TL_CMOH_01</t>
+  </si>
+  <si>
+    <t>TLSanitarySupervisorOne~TL_SS_01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -490,31 +518,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -528,7 +539,6 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -547,7 +557,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -555,100 +565,340 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW56"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="54.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="257" min="6" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.36734693877551"/>
+    <col min="1" max="1" width="25.5703125" style="1"/>
+    <col min="2" max="2" width="30.28515625" style="1"/>
+    <col min="3" max="3" width="29" style="1"/>
+    <col min="4" max="4" width="54.85546875" style="1"/>
+    <col min="5" max="5" width="31" style="1"/>
+    <col min="6" max="257" width="6.140625" style="1"/>
+    <col min="258" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,9 +914,9 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -682,9 +932,9 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -700,9 +950,9 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -718,9 +968,9 @@
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -736,9 +986,9 @@
       <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -754,9 +1004,9 @@
       <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -772,9 +1022,9 @@
       <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -790,9 +1040,9 @@
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -808,9 +1058,9 @@
       <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -826,9 +1076,9 @@
       <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -844,9 +1094,9 @@
       <c r="E11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -862,9 +1112,9 @@
       <c r="E12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -880,9 +1130,9 @@
       <c r="E13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -898,9 +1148,9 @@
       <c r="E14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
@@ -916,9 +1166,9 @@
       <c r="E15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
@@ -934,9 +1184,9 @@
       <c r="E16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>61</v>
       </c>
@@ -954,7 +1204,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
@@ -971,7 +1221,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
@@ -988,7 +1238,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="31.35" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -1005,7 +1255,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -1022,7 +1272,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
@@ -1035,9 +1285,9 @@
       <c r="D22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>76</v>
       </c>
@@ -1054,7 +1304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>78</v>
       </c>
@@ -1071,7 +1321,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
@@ -1088,7 +1338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
@@ -1101,9 +1351,9 @@
       <c r="D26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>86</v>
       </c>
@@ -1116,9 +1366,9 @@
       <c r="D27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>89</v>
       </c>
@@ -1131,9 +1381,9 @@
       <c r="D28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>92</v>
       </c>
@@ -1146,9 +1396,9 @@
       <c r="D29" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>96</v>
       </c>
@@ -1161,9 +1411,9 @@
       <c r="D30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>99</v>
       </c>
@@ -1176,9 +1426,9 @@
       <c r="D31" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>102</v>
       </c>
@@ -1191,9 +1441,9 @@
       <c r="D32" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>105</v>
       </c>
@@ -1206,9 +1456,9 @@
       <c r="D33" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>108</v>
       </c>
@@ -1221,9 +1471,9 @@
       <c r="D34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>111</v>
       </c>
@@ -1236,9 +1486,9 @@
       <c r="D35" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>113</v>
       </c>
@@ -1251,9 +1501,9 @@
       <c r="D36" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>115</v>
       </c>
@@ -1270,7 +1520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>117</v>
       </c>
@@ -1287,7 +1537,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>120</v>
       </c>
@@ -1304,7 +1554,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>124</v>
       </c>
@@ -1321,7 +1571,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>127</v>
       </c>
@@ -1338,7 +1588,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>130</v>
       </c>
@@ -1355,7 +1605,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:5">
       <c r="A43" s="6" t="s">
         <v>134</v>
       </c>
@@ -1372,7 +1622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:5">
       <c r="A44" s="6" t="s">
         <v>136</v>
       </c>
@@ -1389,7 +1639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:5">
       <c r="A45" s="6" t="s">
         <v>138</v>
       </c>
@@ -1406,7 +1656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:5">
       <c r="A46" s="6" t="s">
         <v>140</v>
       </c>
@@ -1420,7 +1670,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>142</v>
       </c>
@@ -1437,7 +1687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>144</v>
       </c>
@@ -1454,7 +1704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>146</v>
       </c>
@@ -1471,7 +1721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>148</v>
       </c>
@@ -1485,65 +1735,142 @@
         <v>149</v>
       </c>
     </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/egov/egov_functional_test/src/test/resources/dataFiles/approvalDetailsTestData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/dataFiles/approvalDetailsTestData.xlsx
@@ -188,9 +188,6 @@
     <t>sanitaryInspector1</t>
   </si>
   <si>
-    <t>TLSanitoryInspectorOne</t>
-  </si>
-  <si>
     <t>Funds needed to resolve the issue</t>
   </si>
   <si>
@@ -504,6 +501,9 @@
   </si>
   <si>
     <t>TLSanitarySupervisorOne~TL_SS_01</t>
+  </si>
+  <si>
+    <t>TLSanitoryInspectorOne [TL_SI_01]</t>
   </si>
 </sst>
 </file>
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,52 +1161,52 @@
         <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="19" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>26</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="20" spans="1:6" ht="31.35" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>26</v>
@@ -1249,7 +1249,7 @@
         <v>46</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>48</v>
@@ -1257,39 +1257,39 @@
     </row>
     <row r="21" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E22"/>
     </row>
     <row r="23" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>6</v>
@@ -1298,7 +1298,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>9</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="24" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>6</v>
@@ -1315,15 +1315,15 @@
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>6</v>
@@ -1332,7 +1332,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>17</v>
@@ -1340,142 +1340,142 @@
     </row>
     <row r="26" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E27"/>
     </row>
     <row r="28" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E29"/>
     </row>
     <row r="30" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E30"/>
     </row>
     <row r="31" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E31"/>
     </row>
     <row r="32" spans="1:6" ht="17.850000000000001" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="E32"/>
     </row>
     <row r="33" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="E33"/>
     </row>
     <row r="34" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E34"/>
     </row>
     <row r="35" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>6</v>
@@ -1484,13 +1484,13 @@
         <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E35"/>
     </row>
     <row r="36" spans="1:5" ht="17.850000000000001" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>19</v>
@@ -1499,13 +1499,13 @@
         <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E36"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>19</v>
@@ -1514,7 +1514,7 @@
         <v>20</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>22</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>50</v>
@@ -1531,83 +1531,83 @@
         <v>51</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>6</v>
@@ -1616,7 +1616,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>9</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>6</v>
@@ -1633,7 +1633,7 @@
         <v>11</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>13</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>6</v>
@@ -1650,7 +1650,7 @@
         <v>15</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>17</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>19</v>
@@ -1667,12 +1667,12 @@
         <v>20</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>6</v>
@@ -1681,7 +1681,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>9</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>6</v>
@@ -1698,7 +1698,7 @@
         <v>11</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>13</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>6</v>
@@ -1715,7 +1715,7 @@
         <v>15</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>17</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>19</v>
@@ -1732,12 +1732,12 @@
         <v>20</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>19</v>
@@ -1746,7 +1746,7 @@
         <v>20</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>22</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>50</v>
@@ -1763,78 +1763,78 @@
         <v>51</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/egov/egov_functional_test/src/test/resources/dataFiles/approvalDetailsTestData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/dataFiles/approvalDetailsTestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="162">
   <si>
     <t>dataName</t>
   </si>
@@ -488,22 +488,25 @@
     <t>TL_SS1</t>
   </si>
   <si>
-    <t>TLSanitoryInspectorOne~TL_SI_01</t>
-  </si>
-  <si>
-    <t>TLAMOHOne~TL_AMOH_10</t>
-  </si>
-  <si>
-    <t>TLMHO~TL_MHO_01</t>
-  </si>
-  <si>
-    <t>TLCMOH~TL_CMOH_01</t>
-  </si>
-  <si>
-    <t>TLSanitarySupervisorOne~TL_SS_01</t>
-  </si>
-  <si>
     <t>TLSanitoryInspectorOne [TL_SI_01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLSanitoryInspectorOne [TL_SI_01] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLAMOHOne [TL_AMOH_10] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLMHO [TL_MHO_01] </t>
+  </si>
+  <si>
+    <t>TLCMOH [TL_CMOH_01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLSanitarySupervisorOne [TL_SS_01] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLCommissionerOne [ADM_COMM_1] </t>
   </si>
 </sst>
 </file>
@@ -883,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,7 +1164,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>55</v>
@@ -1746,7 +1749,7 @@
         <v>20</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>22</v>
@@ -1763,7 +1766,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>118</v>
@@ -1780,7 +1783,7 @@
         <v>120</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>122</v>
@@ -1797,7 +1800,7 @@
         <v>124</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>122</v>
@@ -1814,7 +1817,7 @@
         <v>127</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>122</v>
@@ -1831,7 +1834,7 @@
         <v>130</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>132</v>
